--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rcc8a3d566be4447d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R9d9b3796d8714583"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -271,7 +271,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R27313172b7b748ca"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R968b7975c0bd409b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -382,6 +382,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb8a2357cd2844d95"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6f8171690a7840eb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R9d9b3796d8714583"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R668a604cf77c4255"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -271,7 +271,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R968b7975c0bd409b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R57032db7b9ef46a3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -382,6 +382,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6f8171690a7840eb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re636e9fa339444a2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R668a604cf77c4255"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rbddc3983f7074721"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -271,7 +271,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R57032db7b9ef46a3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0f7c1a9e2dff4838"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -382,6 +382,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re636e9fa339444a2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb82d174159964425"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rbddc3983f7074721"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R81325587c14a4de9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -271,7 +271,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0f7c1a9e2dff4838"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R93e4f5b9b4874c3f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -382,6 +382,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb82d174159964425"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R22539800ca4a46dc"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R81325587c14a4de9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rb2c941813403455e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -271,7 +271,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R93e4f5b9b4874c3f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2137ab58cf3749fe"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -382,6 +382,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R22539800ca4a46dc"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb179d998ab3b45ad"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rb2c941813403455e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R05063330d0404720"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -271,7 +271,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2137ab58cf3749fe"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd93a7e389a874dc7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -382,6 +382,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb179d998ab3b45ad"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R66806b64fac04df5"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R05063330d0404720"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Re66dad272f2f4f46"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -271,7 +271,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd93a7e389a874dc7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcfb607faab264c2d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -382,6 +382,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R66806b64fac04df5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcb09f2e70d784bce"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Re66dad272f2f4f46"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R2dff5c3b1ff34d4b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -271,7 +271,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcfb607faab264c2d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf9019d98db7e4d41"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -382,6 +382,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcb09f2e70d784bce"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdd18c431c2d0444a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R2dff5c3b1ff34d4b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rd368cab8cabd4dd5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -271,7 +271,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf9019d98db7e4d41"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2efaba6faf914ba7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -382,6 +382,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdd18c431c2d0444a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R01b18993589542b8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="Rd368cab8cabd4dd5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R81751cc64a8745d9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -271,7 +271,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2efaba6faf914ba7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R59a10ad8d308488b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -382,6 +382,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R01b18993589542b8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R55a31d1d58df430d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R81751cc64a8745d9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R90d990b12b534e03"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,12 +30,12 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -271,7 +271,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R59a10ad8d308488b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf00b1a1ca487420f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -382,6 +382,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R55a31d1d58df430d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re3269992a91a4ad6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/104_LineChartMultipleSeriesWithColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R90d990b12b534e03"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regional Sales" sheetId="1" r:id="R49accff1666441af"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -271,7 +271,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf00b1a1ca487420f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5d1ab1768ff64497"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -382,6 +382,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re3269992a91a4ad6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd8d31d95d4c042b0"/>
 </x:worksheet>
 </file>